--- a/application_usage-template-with-cumulative.xlsx
+++ b/application_usage-template-with-cumulative.xlsx
@@ -7,26 +7,26 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="19155" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="By Cores CPU 2016-12" sheetId="15" r:id="rId1"/>
-    <sheet name="Applications CPU 2016-12" sheetId="1" r:id="rId2"/>
-    <sheet name="User Walltime CPU 2016-12" sheetId="4" r:id="rId3"/>
-    <sheet name="Org HighLevel CPU 2016-12-27" sheetId="7" r:id="rId4"/>
-    <sheet name="Org Breakdown CPU 2016-12-27" sheetId="5" r:id="rId5"/>
-    <sheet name="Largest Jobs CPU 2016-12-27" sheetId="6" r:id="rId6"/>
-    <sheet name="By Cores GPU 2016-12" sheetId="16" r:id="rId7"/>
-    <sheet name="Applications GPU 2016-12-27" sheetId="3" r:id="rId8"/>
-    <sheet name="User Walltime GPU 2016-12-27" sheetId="10" r:id="rId9"/>
-    <sheet name="Org HighLevel GPU 2016-12-27" sheetId="8" r:id="rId10"/>
-    <sheet name="Org Breakdown GPU 2016-12-27" sheetId="9" r:id="rId11"/>
-    <sheet name="Largest Jobs GPU 2016-12-27" sheetId="11" r:id="rId12"/>
-    <sheet name="Cumulative 2016-12-27 " sheetId="13" r:id="rId13"/>
+    <sheet name="By Cores CPU 2017-01" sheetId="15" r:id="rId1"/>
+    <sheet name="Applications CPU 2017-01" sheetId="1" r:id="rId2"/>
+    <sheet name="User Walltime CPU 2017-01" sheetId="4" r:id="rId3"/>
+    <sheet name="Org HighLevel CPU 2017-01" sheetId="7" r:id="rId4"/>
+    <sheet name="Org Breakdown CPU 2017-01" sheetId="5" r:id="rId5"/>
+    <sheet name="Largest Jobs CPU 2017-01" sheetId="6" r:id="rId6"/>
+    <sheet name="By Cores GPU 2017-01" sheetId="16" r:id="rId7"/>
+    <sheet name="Applications GPU 2017-01" sheetId="3" r:id="rId8"/>
+    <sheet name="User Walltime GPU 2017-01" sheetId="10" r:id="rId9"/>
+    <sheet name="Org HighLevel GPU 2017-01" sheetId="8" r:id="rId10"/>
+    <sheet name="Org Breakdown GPU 2017-01" sheetId="9" r:id="rId11"/>
+    <sheet name="Largest Jobs GPU 2017-01" sheetId="11" r:id="rId12"/>
+    <sheet name="Cumulative 2017-01" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>Rank</t>
   </si>
@@ -97,9 +97,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>2-24</t>
-  </si>
-  <si>
     <t>25-96</t>
   </si>
   <si>
@@ -116,6 +113,21 @@
   </si>
   <si>
     <t>Mean Wait (hrs)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>48-96</t>
+  </si>
+  <si>
+    <t>120-240</t>
+  </si>
+  <si>
+    <t>264-960</t>
+  </si>
+  <si>
+    <t>2-23</t>
   </si>
 </sst>
 </file>
@@ -717,7 +729,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2016-12-27 '!$B$1</c:f>
+              <c:f>'Cumulative 2017-01'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -728,7 +740,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$A$2:$A$10</c:f>
+              <c:f>'Cumulative 2017-01'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -764,7 +776,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$B$2:$B$10</c:f>
+              <c:f>'Cumulative 2017-01'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -804,7 +816,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2016-12-27 '!$C$1</c:f>
+              <c:f>'Cumulative 2017-01'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -815,7 +827,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$A$2:$A$10</c:f>
+              <c:f>'Cumulative 2017-01'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -851,7 +863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$C$2:$C$10</c:f>
+              <c:f>'Cumulative 2017-01'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -894,11 +906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109126400"/>
-        <c:axId val="109127936"/>
+        <c:axId val="67642880"/>
+        <c:axId val="67644416"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="109126400"/>
+        <c:axId val="67642880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,14 +920,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109127936"/>
+        <c:crossAx val="67644416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109127936"/>
+        <c:axId val="67644416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109126400"/>
+        <c:crossAx val="67642880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -973,7 +985,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2016-12-27 '!$H$1</c:f>
+              <c:f>'Cumulative 2017-01'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -984,7 +996,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-01'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1020,7 +1032,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$H$2:$H$10</c:f>
+              <c:f>'Cumulative 2017-01'!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1060,7 +1072,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2016-12-27 '!$I$1</c:f>
+              <c:f>'Cumulative 2017-01'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1071,7 +1083,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-01'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1107,7 +1119,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$I$2:$I$10</c:f>
+              <c:f>'Cumulative 2017-01'!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1147,7 +1159,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2016-12-27 '!$J$1</c:f>
+              <c:f>'Cumulative 2017-01'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1158,7 +1170,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-01'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1194,7 +1206,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$J$2:$J$10</c:f>
+              <c:f>'Cumulative 2017-01'!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1234,7 +1246,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cumulative 2016-12-27 '!$K$1</c:f>
+              <c:f>'Cumulative 2017-01'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1245,7 +1257,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$G$2:$G$10</c:f>
+              <c:f>'Cumulative 2017-01'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1281,7 +1293,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative 2016-12-27 '!$K$2:$K$10</c:f>
+              <c:f>'Cumulative 2017-01'!$K$2:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1324,11 +1336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109154688"/>
-        <c:axId val="109156224"/>
+        <c:axId val="67661184"/>
+        <c:axId val="67675264"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="109154688"/>
+        <c:axId val="67661184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,14 +1350,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109156224"/>
+        <c:crossAx val="67675264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109156224"/>
+        <c:axId val="67675264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109154688"/>
+        <c:crossAx val="67661184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1734,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1758,10 +1770,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1771,27 +1783,32 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2559,11 +2576,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2585,40 +2600,35 @@
         <v>5</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
